--- a/excel/grid.xlsx
+++ b/excel/grid.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\limka\Desktop\Python\strain_sensor_caa_210219\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\limka\Desktop\Python\strainsensor\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE747A3-A5C9-43E4-94BC-B2B995F569D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B274DB8-805A-4E71-AB44-490B7FAE93F3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{34F079AD-6DCB-416E-BD24-B88CD5CBC5BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="4">
   <si>
     <t>A</t>
   </si>
@@ -42,7 +41,7 @@
     <t>D</t>
   </si>
   <si>
-    <t>PVA \ CNT</t>
+    <t>CNT \ PVA</t>
   </si>
 </sst>
 </file>
@@ -164,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -181,14 +180,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -500,7 +507,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63087271-B37F-4203-9CB1-9C156A9D5F3F}">
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="68" workbookViewId="0">
+      <selection activeCell="Z4" sqref="Z4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -607,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>1</v>
@@ -624,27 +633,51 @@
       <c r="L2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="M2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="O2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
+      <c r="P2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="R2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
+      <c r="S2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="V2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
+      <c r="W2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="2">
@@ -653,9 +686,15 @@
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="F3" s="3" t="s">
         <v>0</v>
       </c>
@@ -674,31 +713,71 @@
       <c r="K3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="4"/>
+      <c r="L3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="2">
         <v>8</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="F4" s="3" t="s">
         <v>0</v>
       </c>
@@ -714,23 +793,57 @@
       <c r="J4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
+      <c r="K4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="2">
@@ -739,9 +852,15 @@
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="F5" s="3" t="s">
         <v>0</v>
       </c>
@@ -757,32 +876,74 @@
       <c r="J5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
+      <c r="K5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="2">
         <v>16</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="F6" s="3" t="s">
         <v>0</v>
       </c>
@@ -798,32 +959,74 @@
       <c r="J6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
+      <c r="K6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="2">
         <v>20</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="F7" s="3" t="s">
         <v>0</v>
       </c>
@@ -839,32 +1042,74 @@
       <c r="J7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
+      <c r="K7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="2">
         <v>24</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="F8" s="3" t="s">
         <v>0</v>
       </c>
@@ -877,24 +1122,60 @@
       <c r="I8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
+      <c r="J8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="2">
@@ -903,9 +1184,15 @@
       <c r="B9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="F9" s="3" t="s">
         <v>0</v>
       </c>
@@ -918,38 +1205,82 @@
       <c r="I9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
+      <c r="J9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA9" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="2">
         <v>32</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="F10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>1</v>
@@ -957,158 +1288,392 @@
       <c r="I10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
+      <c r="J10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="2">
         <v>36</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="F11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
+      <c r="K11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA11" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="2">
         <v>40</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="F12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
+      <c r="J12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA12" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="2">
         <v>44</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="F13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
+      <c r="G13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="V13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA13" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="2">
         <v>48</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA14" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="2">
@@ -1117,155 +1682,413 @@
       <c r="B15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
+      <c r="C15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA15" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="2">
         <v>56</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA16" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="2">
         <v>60</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="V17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA17" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="2">
         <v>64</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="V18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA18" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="2">
         <v>68</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="V19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA19" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="2">
@@ -1274,62 +2097,164 @@
       <c r="B20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
+      <c r="C20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="V20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA20" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="2">
         <v>76</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
+      <c r="B21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="V21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA21" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="2">
@@ -1338,62 +2263,164 @@
       <c r="B22" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
+      <c r="C22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="V22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA22" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="2">
         <v>84</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
+      <c r="B23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="V23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA23" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="2">
@@ -1402,31 +2429,81 @@
       <c r="B24" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
+      <c r="C24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="V24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA24" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="25" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="2">
@@ -1438,30 +2515,78 @@
       <c r="C25" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
+      <c r="D25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="V25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA25" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="2">
@@ -1470,31 +2595,81 @@
       <c r="B26" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
+      <c r="C26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="V26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA26" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="27" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="2">
@@ -1503,33 +2678,88 @@
       <c r="B27" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
+      <c r="C27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="V27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA27" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:AA27">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>$H$16</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
